--- a/Code/Results/Cases/Case_4_200/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_200/res_line/pl_mw.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.999660311275107</v>
+        <v>0.640398102298974</v>
       </c>
       <c r="C2">
-        <v>0.4439162311888367</v>
+        <v>0.1587715242438037</v>
       </c>
       <c r="D2">
-        <v>0.2053460322317449</v>
+        <v>0.07949264753537477</v>
       </c>
       <c r="E2">
-        <v>0.234427278167999</v>
+        <v>0.1316963412771841</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.4152277088877412</v>
+        <v>0.3475388844066885</v>
       </c>
       <c r="H2">
-        <v>0.2753510036237827</v>
+        <v>0.4842450376280283</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.8719091063823114</v>
+        <v>0.3018572028508899</v>
       </c>
       <c r="N2">
-        <v>0.5589677435301468</v>
+        <v>0.9455168968621663</v>
       </c>
       <c r="O2">
-        <v>1.408237628896757</v>
+        <v>1.598725780483932</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.740476200220229</v>
+        <v>0.5612502910020964</v>
       </c>
       <c r="C3">
-        <v>0.394159570680074</v>
+        <v>0.1426798511972152</v>
       </c>
       <c r="D3">
-        <v>0.178006313556196</v>
+        <v>0.07197596791050387</v>
       </c>
       <c r="E3">
-        <v>0.2047730934573835</v>
+        <v>0.1250880501773466</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.3717920762282176</v>
+        <v>0.3398822978595888</v>
       </c>
       <c r="H3">
-        <v>0.2610956804959272</v>
+        <v>0.4847882341582306</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.7549148093687208</v>
+        <v>0.2685275738221407</v>
       </c>
       <c r="N3">
-        <v>0.5821165776343875</v>
+        <v>0.9555295310662544</v>
       </c>
       <c r="O3">
-        <v>1.285908221976769</v>
+        <v>1.583324172284108</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.581558665086817</v>
+        <v>0.512575376212709</v>
       </c>
       <c r="C4">
-        <v>0.3635791062947646</v>
+        <v>0.1327393374131987</v>
       </c>
       <c r="D4">
-        <v>0.1613806674916844</v>
+        <v>0.06739479089533518</v>
       </c>
       <c r="E4">
-        <v>0.1870508753894029</v>
+        <v>0.1211461316568858</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.3461069203679017</v>
+        <v>0.3355037645628443</v>
       </c>
       <c r="H4">
-        <v>0.2529474097391073</v>
+        <v>0.4854148373558189</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.6835926060904995</v>
+        <v>0.2481201624663427</v>
       </c>
       <c r="N4">
-        <v>0.5973021374085654</v>
+        <v>0.9621064615574113</v>
       </c>
       <c r="O4">
-        <v>1.214139132836237</v>
+        <v>1.575154000857623</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.516830164228168</v>
+        <v>0.4927213306235103</v>
       </c>
       <c r="C5">
-        <v>0.3511061563406486</v>
+        <v>0.1286735800856889</v>
       </c>
       <c r="D5">
-        <v>0.1546410967951175</v>
+        <v>0.0655364917744663</v>
       </c>
       <c r="E5">
-        <v>0.1799384917549034</v>
+        <v>0.1195685798303003</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.3358677402886485</v>
+        <v>0.3338002977567953</v>
       </c>
       <c r="H5">
-        <v>0.2497699688432249</v>
+        <v>0.4857438288041749</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.6546364338310298</v>
+        <v>0.2398183476689226</v>
       </c>
       <c r="N5">
-        <v>0.6037265223954726</v>
+        <v>0.9648945236705302</v>
       </c>
       <c r="O5">
-        <v>1.185672085779203</v>
+        <v>1.572147312993309</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.506083278849303</v>
+        <v>0.4894234847852772</v>
       </c>
       <c r="C6">
-        <v>0.3490342551535548</v>
+        <v>0.1279975694385485</v>
       </c>
       <c r="D6">
-        <v>0.1535240005071046</v>
+        <v>0.06522843993073479</v>
       </c>
       <c r="E6">
-        <v>0.1787637512948024</v>
+        <v>0.1193083612383177</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.3341807268541857</v>
+        <v>0.3335223107146845</v>
       </c>
       <c r="H6">
-        <v>0.2492507435698741</v>
+        <v>0.4858029041029539</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.6498342365108059</v>
+        <v>0.238440705955405</v>
       </c>
       <c r="N6">
-        <v>0.6048073155875677</v>
+        <v>0.9653639968366292</v>
       </c>
       <c r="O6">
-        <v>1.180990513312253</v>
+        <v>1.571667523882667</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.580685616593286</v>
+        <v>0.51230769175109</v>
       </c>
       <c r="C7">
-        <v>0.3634109416284446</v>
+        <v>0.1326845653080113</v>
       </c>
       <c r="D7">
-        <v>0.1612896378824473</v>
+        <v>0.06736969454017583</v>
       </c>
       <c r="E7">
-        <v>0.1869545276866873</v>
+        <v>0.1211247399210151</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.3459679345735509</v>
+        <v>0.3354804641838314</v>
       </c>
       <c r="H7">
-        <v>0.2529039899820447</v>
+        <v>0.4854189761308447</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.6832016814020037</v>
+        <v>0.2480081430869134</v>
       </c>
       <c r="N7">
-        <v>0.5973878333813119</v>
+        <v>0.962143625415159</v>
       </c>
       <c r="O7">
-        <v>1.213752138407017</v>
+        <v>1.575112145947088</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.910232276646781</v>
+        <v>0.6131246379628124</v>
       </c>
       <c r="C8">
-        <v>0.4267639694299703</v>
+        <v>0.1532357235221298</v>
       </c>
       <c r="D8">
-        <v>0.1958827828372307</v>
+        <v>0.07689381433226572</v>
       </c>
       <c r="E8">
-        <v>0.2240939379236906</v>
+        <v>0.1293936533814559</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.4000344882142315</v>
+        <v>0.3448317394008313</v>
       </c>
       <c r="H8">
-        <v>0.2703047340589677</v>
+        <v>0.484371471107778</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.8314501379587611</v>
+        <v>0.2903532870874486</v>
       </c>
       <c r="N8">
-        <v>0.5667425746356116</v>
+        <v>0.948880186406349</v>
       </c>
       <c r="O8">
-        <v>1.365327201110887</v>
+        <v>1.593147823129868</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.559442079977373</v>
+        <v>0.8101765562271908</v>
       </c>
       <c r="C9">
-        <v>0.5509501677285868</v>
+        <v>0.1930517069722839</v>
       </c>
       <c r="D9">
-        <v>0.2652388786673328</v>
+        <v>0.09584236366829657</v>
       </c>
       <c r="E9">
-        <v>0.3013867368381327</v>
+        <v>0.1465386960522252</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.5148249386544705</v>
+        <v>0.3657450237356699</v>
       </c>
       <c r="H9">
-        <v>0.3096563333548659</v>
+        <v>0.4846457114315257</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>1.127248428964535</v>
+        <v>0.3738491401714299</v>
       </c>
       <c r="N9">
-        <v>0.5147563828868229</v>
+        <v>0.9262756263227772</v>
       </c>
       <c r="O9">
-        <v>1.692008794986918</v>
+        <v>1.638762624126542</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.04007025318208</v>
+        <v>0.9545253122140025</v>
       </c>
       <c r="C10">
-        <v>0.6424500568137717</v>
+        <v>0.2220017199902884</v>
       </c>
       <c r="D10">
-        <v>0.3174819629212493</v>
+        <v>0.1099327191611366</v>
       </c>
       <c r="E10">
-        <v>0.3618147712349327</v>
+        <v>0.1597206078197857</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.6059293508422883</v>
+        <v>0.3827035734410771</v>
       </c>
       <c r="H10">
-        <v>0.3423997577803846</v>
+        <v>0.4862716434039243</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>1.349209475263194</v>
+        <v>0.4354840229545545</v>
       </c>
       <c r="N10">
-        <v>0.4820912768259689</v>
+        <v>0.9117439608464579</v>
       </c>
       <c r="O10">
-        <v>1.954339662083243</v>
+        <v>1.678583339764344</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.25996237613316</v>
+        <v>1.020095658049172</v>
       </c>
       <c r="C11">
-        <v>0.6842037949931239</v>
+        <v>0.2351047162476618</v>
       </c>
       <c r="D11">
-        <v>0.3416147905697215</v>
+        <v>0.1163802107657688</v>
       </c>
       <c r="E11">
-        <v>0.3903211427597455</v>
+        <v>0.1658486282549561</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.6491876782134511</v>
+        <v>0.3907696477754286</v>
       </c>
       <c r="H11">
-        <v>0.358282911246036</v>
+        <v>0.4873217693036338</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>1.451567877676581</v>
+        <v>0.463589318609138</v>
       </c>
       <c r="N11">
-        <v>0.4685724192618963</v>
+        <v>0.9055840192889022</v>
       </c>
       <c r="O11">
-        <v>2.079579424188069</v>
+        <v>1.698081875593488</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.343449691646867</v>
+        <v>1.044911068177726</v>
       </c>
       <c r="C12">
-        <v>0.700039929674432</v>
+        <v>0.2400567395843609</v>
       </c>
       <c r="D12">
-        <v>0.3508137841831171</v>
+        <v>0.1188271591476706</v>
       </c>
       <c r="E12">
-        <v>0.4012827441533702</v>
+        <v>0.168188363254032</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.6658604100543073</v>
+        <v>0.3938749819930933</v>
       </c>
       <c r="H12">
-        <v>0.364453581869725</v>
+        <v>0.4877641486559838</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1.490561801465915</v>
+        <v>0.4742418319334121</v>
       </c>
       <c r="N12">
-        <v>0.4636588025721906</v>
+        <v>0.9033162343867716</v>
       </c>
       <c r="O12">
-        <v>2.127948672000684</v>
+        <v>1.705665419615201</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.325458811792714</v>
+        <v>1.039567294146252</v>
       </c>
       <c r="C13">
-        <v>0.696628122134797</v>
+        <v>0.2389906721785735</v>
       </c>
       <c r="D13">
-        <v>0.3488298017725242</v>
+        <v>0.1182999238480278</v>
       </c>
       <c r="E13">
-        <v>0.3989141982326743</v>
+        <v>0.1676836017123762</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.662256146038402</v>
+        <v>0.3932039241714875</v>
       </c>
       <c r="H13">
-        <v>0.363117441520572</v>
+        <v>0.4876668842780418</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1.482152832570605</v>
+        <v>0.4719471939202435</v>
       </c>
       <c r="N13">
-        <v>0.4647076741668528</v>
+        <v>0.9038017571975772</v>
       </c>
       <c r="O13">
-        <v>2.117487929504904</v>
+        <v>1.704023264546635</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.266826305209577</v>
+        <v>1.022137536520233</v>
       </c>
       <c r="C14">
-        <v>0.6855061066366943</v>
+        <v>0.2355123198642843</v>
       </c>
       <c r="D14">
-        <v>0.3423703407849814</v>
+        <v>0.1165814139972667</v>
       </c>
       <c r="E14">
-        <v>0.3912194916531533</v>
+        <v>0.1660407335443139</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.6505533214995154</v>
+        <v>0.3910241037244191</v>
       </c>
       <c r="H14">
-        <v>0.3587873640613566</v>
+        <v>0.4873572674574831</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>1.454771058448415</v>
+        <v>0.4644655140853615</v>
       </c>
       <c r="N14">
-        <v>0.4681639735092205</v>
+        <v>0.9053961471980188</v>
       </c>
       <c r="O14">
-        <v>2.08353930924028</v>
+        <v>1.698701767623561</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.230941925831246</v>
+        <v>1.011459366855945</v>
       </c>
       <c r="C15">
-        <v>0.6786969879692037</v>
+        <v>0.2333804458842508</v>
       </c>
       <c r="D15">
-        <v>0.3384218382786344</v>
+        <v>0.1155294833310307</v>
       </c>
       <c r="E15">
-        <v>0.3865286341366954</v>
+        <v>0.1650369362502317</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.6434239542461597</v>
+        <v>0.3896955376697093</v>
       </c>
       <c r="H15">
-        <v>0.3561558254608315</v>
+        <v>0.4871734441683913</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>1.43803032328286</v>
+        <v>0.4598840248069536</v>
       </c>
       <c r="N15">
-        <v>0.4703082420055367</v>
+        <v>0.9063812044474204</v>
       </c>
       <c r="O15">
-        <v>2.062870632473704</v>
+        <v>1.695468252073994</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.025728230250763</v>
+        <v>0.9502381419860626</v>
       </c>
       <c r="C16">
-        <v>0.639724485059844</v>
+        <v>0.2211440500902597</v>
       </c>
       <c r="D16">
-        <v>0.3159128523859493</v>
+        <v>0.1095121193718569</v>
       </c>
       <c r="E16">
-        <v>0.3599739997874281</v>
+        <v>0.1593227970805842</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.603141408294718</v>
+        <v>0.3821835391734254</v>
       </c>
       <c r="H16">
-        <v>0.3413828081295378</v>
+        <v>0.4862092690884054</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>1.342550827344851</v>
+        <v>0.4336486273001725</v>
       </c>
       <c r="N16">
-        <v>0.4830028237150117</v>
+        <v>0.9121555992712871</v>
       </c>
       <c r="O16">
-        <v>1.946281675689335</v>
+        <v>1.677336986424962</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.90018359786842</v>
+        <v>0.9126559195390769</v>
       </c>
       <c r="C17">
-        <v>0.6158536466149087</v>
+        <v>0.2136202168173611</v>
       </c>
       <c r="D17">
-        <v>0.3022036017243011</v>
+        <v>0.1058303217897816</v>
       </c>
       <c r="E17">
-        <v>0.3439582092835209</v>
+        <v>0.1558512354229151</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.578915268273974</v>
+        <v>0.3776654493326106</v>
       </c>
       <c r="H17">
-        <v>0.3325826993105636</v>
+        <v>0.4856973522291241</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>1.284355495900428</v>
+        <v>0.4175712730834817</v>
       </c>
       <c r="N17">
-        <v>0.491142785853846</v>
+        <v>0.9158134488413978</v>
       </c>
       <c r="O17">
-        <v>1.876335321265202</v>
+        <v>1.666569109622003</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.82808896830204</v>
+        <v>0.891030774987712</v>
       </c>
       <c r="C18">
-        <v>0.6021356012256547</v>
+        <v>0.2092864605636748</v>
       </c>
       <c r="D18">
-        <v>0.2943524756699247</v>
+        <v>0.1037161994924247</v>
       </c>
       <c r="E18">
-        <v>0.3348407709692864</v>
+        <v>0.1538668460423622</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.5651498345666539</v>
+        <v>0.3750998326613626</v>
       </c>
       <c r="H18">
-        <v>0.3276132037317012</v>
+        <v>0.4854321307995235</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>1.251011475424335</v>
+        <v>0.4083303382897867</v>
       </c>
       <c r="N18">
-        <v>0.4959500381918502</v>
+        <v>0.9179597547064446</v>
       </c>
       <c r="O18">
-        <v>1.836653655112599</v>
+        <v>1.660505918313532</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.803697639454754</v>
+        <v>0.8837073856364555</v>
       </c>
       <c r="C19">
-        <v>0.5974927585935177</v>
+        <v>0.2078180594544676</v>
       </c>
       <c r="D19">
-        <v>0.29169984856658</v>
+        <v>0.1030010037821683</v>
       </c>
       <c r="E19">
-        <v>0.3317693835477797</v>
+        <v>0.1531970804992682</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.5605171874754831</v>
+        <v>0.3742368283621715</v>
       </c>
       <c r="H19">
-        <v>0.3259460269372454</v>
+        <v>0.4853473476682524</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>1.239742840486102</v>
+        <v>0.4052026052634972</v>
       </c>
       <c r="N19">
-        <v>0.4975988450050153</v>
+        <v>0.9186937388542518</v>
       </c>
       <c r="O19">
-        <v>1.823309761267694</v>
+        <v>1.65847536251141</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.913535831400452</v>
+        <v>0.9166575342306942</v>
       </c>
       <c r="C20">
-        <v>0.6183934706565424</v>
+        <v>0.2144217898774059</v>
       </c>
       <c r="D20">
-        <v>0.3036593951834732</v>
+        <v>0.1062218879888661</v>
       </c>
       <c r="E20">
-        <v>0.3456532023368553</v>
+        <v>0.1562195077628772</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.5814764964767107</v>
+        <v>0.3781429827489262</v>
       </c>
       <c r="H20">
-        <v>0.3335098567184929</v>
+        <v>0.4857488220060446</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>1.290536966283611</v>
+        <v>0.4192820795261412</v>
       </c>
       <c r="N20">
-        <v>0.4902632082470006</v>
+        <v>0.9154196750838395</v>
       </c>
       <c r="O20">
-        <v>1.883723684103416</v>
+        <v>1.667701886283339</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.284041825061422</v>
+        <v>1.027257484969311</v>
       </c>
       <c r="C21">
-        <v>0.6887721840136578</v>
+        <v>0.2365342639947414</v>
       </c>
       <c r="D21">
-        <v>0.3442659377935371</v>
+        <v>0.1170860348198346</v>
       </c>
       <c r="E21">
-        <v>0.3934749116803573</v>
+        <v>0.1665227608193121</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.6539825488953568</v>
+        <v>0.3916629861065104</v>
       </c>
       <c r="H21">
-        <v>0.3600548600564082</v>
+        <v>0.487446995169222</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>1.462807143039711</v>
+        <v>0.4666628031821602</v>
       </c>
       <c r="N21">
-        <v>0.4671430847907487</v>
+        <v>0.9049260756796471</v>
       </c>
       <c r="O21">
-        <v>2.093484438510842</v>
+        <v>1.700259388883097</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.52748556604331</v>
+        <v>1.099455030400122</v>
       </c>
       <c r="C22">
-        <v>0.7349171915923023</v>
+        <v>0.2509288323749388</v>
       </c>
       <c r="D22">
-        <v>0.3711607745344878</v>
+        <v>0.1242179929171243</v>
       </c>
       <c r="E22">
-        <v>0.4257126897016619</v>
+        <v>0.1733684958091928</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.7030860872712452</v>
+        <v>0.4007958526366622</v>
       </c>
       <c r="H22">
-        <v>0.3783205527306137</v>
+        <v>0.4888175426294623</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.576771645095889</v>
+        <v>0.4976850680415481</v>
       </c>
       <c r="N22">
-        <v>0.4532383266258222</v>
+        <v>0.8984459346727576</v>
       </c>
       <c r="O22">
-        <v>2.236125226380096</v>
+        <v>1.722703006344346</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.397422677775751</v>
+        <v>1.06093004899185</v>
       </c>
       <c r="C23">
-        <v>0.7102729424665597</v>
+        <v>0.2432514919385085</v>
       </c>
       <c r="D23">
-        <v>0.3567712378122394</v>
+        <v>0.120408640677141</v>
       </c>
       <c r="E23">
-        <v>0.4084094855738272</v>
+        <v>0.1697044618955914</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.6767106840650428</v>
+        <v>0.3958942055906363</v>
       </c>
       <c r="H23">
-        <v>0.3684829783297943</v>
+        <v>0.4880621781655066</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.515808865437222</v>
+        <v>0.4811227657007748</v>
       </c>
       <c r="N23">
-        <v>0.4605447240725127</v>
+        <v>0.9018698976576189</v>
       </c>
       <c r="O23">
-        <v>2.159454010489213</v>
+        <v>1.710617503587002</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.907499032079443</v>
+        <v>0.9148484621630928</v>
       </c>
       <c r="C24">
-        <v>0.6172451991720607</v>
+        <v>0.2140594242367229</v>
       </c>
       <c r="D24">
-        <v>0.3030011365137995</v>
+        <v>0.1060448528379396</v>
       </c>
       <c r="E24">
-        <v>0.3448866163907951</v>
+        <v>0.1560529761715017</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.5803180613652046</v>
+        <v>0.3779269905709413</v>
       </c>
       <c r="H24">
-        <v>0.3330904101785848</v>
+        <v>0.485725461921021</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>1.287741973271508</v>
+        <v>0.4185086172382455</v>
       </c>
       <c r="N24">
-        <v>0.4906604691758361</v>
+        <v>0.9155975651378299</v>
       </c>
       <c r="O24">
-        <v>1.880381757059837</v>
+        <v>1.667189361158819</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.383313830385475</v>
+        <v>0.7569413824425624</v>
       </c>
       <c r="C25">
-        <v>0.5173312645807187</v>
+        <v>0.182333080663625</v>
       </c>
       <c r="D25">
-        <v>0.2462777890550853</v>
+        <v>0.09068685325721049</v>
       </c>
       <c r="E25">
-        <v>0.2799087667099016</v>
+        <v>0.1417990477271829</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.4826917652163729</v>
+        <v>0.359809274189189</v>
       </c>
       <c r="H25">
-        <v>0.298387200968719</v>
+        <v>0.4843217362299583</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>1.046531349915249</v>
+        <v>0.3512111423917119</v>
       </c>
       <c r="N25">
-        <v>0.5278939864294614</v>
+        <v>0.9320262352454165</v>
       </c>
       <c r="O25">
-        <v>1.600048568237696</v>
+        <v>1.625319328475058</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_200/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_200/res_line/pl_mw.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.640398102298974</v>
+        <v>1.999660311275164</v>
       </c>
       <c r="C2">
-        <v>0.1587715242438037</v>
+        <v>0.4439162311892062</v>
       </c>
       <c r="D2">
-        <v>0.07949264753537477</v>
+        <v>0.2053460322319154</v>
       </c>
       <c r="E2">
-        <v>0.1316963412771841</v>
+        <v>0.2344272781680061</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.3475388844066885</v>
+        <v>0.4152277088877696</v>
       </c>
       <c r="H2">
-        <v>0.4842450376280283</v>
+        <v>0.275351003623669</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.3018572028508899</v>
+        <v>0.8719091063822972</v>
       </c>
       <c r="N2">
-        <v>0.9455168968621663</v>
+        <v>0.5589677435301468</v>
       </c>
       <c r="O2">
-        <v>1.598725780483932</v>
+        <v>1.408237628896728</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.5612502910020964</v>
+        <v>1.740476200220087</v>
       </c>
       <c r="C3">
-        <v>0.1426798511972152</v>
+        <v>0.394159570679733</v>
       </c>
       <c r="D3">
-        <v>0.07197596791050387</v>
+        <v>0.1780063135562671</v>
       </c>
       <c r="E3">
-        <v>0.1250880501773466</v>
+        <v>0.2047730934573408</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.3398822978595888</v>
+        <v>0.3717920762281892</v>
       </c>
       <c r="H3">
-        <v>0.4847882341582306</v>
+        <v>0.261095680495913</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.2685275738221407</v>
+        <v>0.7549148093687137</v>
       </c>
       <c r="N3">
-        <v>0.9555295310662544</v>
+        <v>0.5821165776343378</v>
       </c>
       <c r="O3">
-        <v>1.583324172284108</v>
+        <v>1.285908221976769</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.512575376212709</v>
+        <v>1.581558665086817</v>
       </c>
       <c r="C4">
-        <v>0.1327393374131987</v>
+        <v>0.3635791062947931</v>
       </c>
       <c r="D4">
-        <v>0.06739479089533518</v>
+        <v>0.1613806674916418</v>
       </c>
       <c r="E4">
-        <v>0.1211461316568858</v>
+        <v>0.18705087538941</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.3355037645628443</v>
+        <v>0.3461069203679159</v>
       </c>
       <c r="H4">
-        <v>0.4854148373558189</v>
+        <v>0.2529474097391073</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.2481201624663427</v>
+        <v>0.6835926060904924</v>
       </c>
       <c r="N4">
-        <v>0.9621064615574113</v>
+        <v>0.5973021374085654</v>
       </c>
       <c r="O4">
-        <v>1.575154000857623</v>
+        <v>1.214139132836323</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.4927213306235103</v>
+        <v>1.516830164228338</v>
       </c>
       <c r="C5">
-        <v>0.1286735800856889</v>
+        <v>0.3511061563404496</v>
       </c>
       <c r="D5">
-        <v>0.0655364917744663</v>
+        <v>0.1546410967950607</v>
       </c>
       <c r="E5">
-        <v>0.1195685798303003</v>
+        <v>0.1799384917548892</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.3338002977567953</v>
+        <v>0.3358677402885775</v>
       </c>
       <c r="H5">
-        <v>0.4857438288041749</v>
+        <v>0.2497699688433528</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.2398183476689226</v>
+        <v>0.6546364338310298</v>
       </c>
       <c r="N5">
-        <v>0.9648945236705302</v>
+        <v>0.6037265223954691</v>
       </c>
       <c r="O5">
-        <v>1.572147312993309</v>
+        <v>1.185672085779174</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.4894234847852772</v>
+        <v>1.506083278849161</v>
       </c>
       <c r="C6">
-        <v>0.1279975694385485</v>
+        <v>0.3490342551536401</v>
       </c>
       <c r="D6">
-        <v>0.06522843993073479</v>
+        <v>0.1535240005070335</v>
       </c>
       <c r="E6">
-        <v>0.1193083612383177</v>
+        <v>0.1787637512948024</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.3335223107146845</v>
+        <v>0.3341807268541999</v>
       </c>
       <c r="H6">
-        <v>0.4858029041029539</v>
+        <v>0.2492507435699878</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.238440705955405</v>
+        <v>0.6498342365108201</v>
       </c>
       <c r="N6">
-        <v>0.9653639968366292</v>
+        <v>0.6048073155875606</v>
       </c>
       <c r="O6">
-        <v>1.571667523882667</v>
+        <v>1.180990513312281</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.51230769175109</v>
+        <v>1.580685616593144</v>
       </c>
       <c r="C7">
-        <v>0.1326845653080113</v>
+        <v>0.3634109416280467</v>
       </c>
       <c r="D7">
-        <v>0.06736969454017583</v>
+        <v>0.1612896378822342</v>
       </c>
       <c r="E7">
-        <v>0.1211247399210151</v>
+        <v>0.1869545276866873</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.3354804641838314</v>
+        <v>0.3459679345735083</v>
       </c>
       <c r="H7">
-        <v>0.4854189761308447</v>
+        <v>0.2529039899820305</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.2480081430869134</v>
+        <v>0.6832016814019966</v>
       </c>
       <c r="N7">
-        <v>0.962143625415159</v>
+        <v>0.5973878333813687</v>
       </c>
       <c r="O7">
-        <v>1.575112145947088</v>
+        <v>1.213752138407017</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.6131246379628124</v>
+        <v>1.910232276646781</v>
       </c>
       <c r="C8">
-        <v>0.1532357235221298</v>
+        <v>0.4267639694298566</v>
       </c>
       <c r="D8">
-        <v>0.07689381433226572</v>
+        <v>0.195882782837046</v>
       </c>
       <c r="E8">
-        <v>0.1293936533814559</v>
+        <v>0.2240939379236835</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.3448317394008313</v>
+        <v>0.4000344882142457</v>
       </c>
       <c r="H8">
-        <v>0.484371471107778</v>
+        <v>0.2703047340590814</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.2903532870874486</v>
+        <v>0.8314501379587398</v>
       </c>
       <c r="N8">
-        <v>0.948880186406349</v>
+        <v>0.5667425746356045</v>
       </c>
       <c r="O8">
-        <v>1.593147823129868</v>
+        <v>1.365327201110858</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.8101765562271908</v>
+        <v>2.559442079977316</v>
       </c>
       <c r="C9">
-        <v>0.1930517069722839</v>
+        <v>0.5509501677283311</v>
       </c>
       <c r="D9">
-        <v>0.09584236366829657</v>
+        <v>0.2652388786672759</v>
       </c>
       <c r="E9">
-        <v>0.1465386960522252</v>
+        <v>0.3013867368380971</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.3657450237356699</v>
+        <v>0.514824938654499</v>
       </c>
       <c r="H9">
-        <v>0.4846457114315257</v>
+        <v>0.3096563333549796</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.3738491401714299</v>
+        <v>1.127248428964513</v>
       </c>
       <c r="N9">
-        <v>0.9262756263227772</v>
+        <v>0.5147563828868158</v>
       </c>
       <c r="O9">
-        <v>1.638762624126542</v>
+        <v>1.692008794986975</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.9545253122140025</v>
+        <v>3.040070253181966</v>
       </c>
       <c r="C10">
-        <v>0.2220017199902884</v>
+        <v>0.6424500568141127</v>
       </c>
       <c r="D10">
-        <v>0.1099327191611366</v>
+        <v>0.3174819629210504</v>
       </c>
       <c r="E10">
-        <v>0.1597206078197857</v>
+        <v>0.3618147712349398</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.3827035734410771</v>
+        <v>0.6059293508423309</v>
       </c>
       <c r="H10">
-        <v>0.4862716434039243</v>
+        <v>0.3423997577803704</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.4354840229545545</v>
+        <v>1.34920947526318</v>
       </c>
       <c r="N10">
-        <v>0.9117439608464579</v>
+        <v>0.4820912768259547</v>
       </c>
       <c r="O10">
-        <v>1.678583339764344</v>
+        <v>1.954339662083157</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.020095658049172</v>
+        <v>3.25996237613316</v>
       </c>
       <c r="C11">
-        <v>0.2351047162476618</v>
+        <v>0.6842037949932092</v>
       </c>
       <c r="D11">
-        <v>0.1163802107657688</v>
+        <v>0.3416147905696079</v>
       </c>
       <c r="E11">
-        <v>0.1658486282549561</v>
+        <v>0.3903211427597668</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.3907696477754286</v>
+        <v>0.6491876782133659</v>
       </c>
       <c r="H11">
-        <v>0.4873217693036338</v>
+        <v>0.3582829112459365</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.463589318609138</v>
+        <v>1.451567877676595</v>
       </c>
       <c r="N11">
-        <v>0.9055840192889022</v>
+        <v>0.4685724192618395</v>
       </c>
       <c r="O11">
-        <v>1.698081875593488</v>
+        <v>2.079579424187983</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.044911068177726</v>
+        <v>3.343449691646924</v>
       </c>
       <c r="C12">
-        <v>0.2400567395843609</v>
+        <v>0.7000399296748014</v>
       </c>
       <c r="D12">
-        <v>0.1188271591476706</v>
+        <v>0.3508137841830319</v>
       </c>
       <c r="E12">
-        <v>0.168188363254032</v>
+        <v>0.4012827441533418</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.3938749819930933</v>
+        <v>0.6658604100543641</v>
       </c>
       <c r="H12">
-        <v>0.4877641486559838</v>
+        <v>0.364453581869725</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.4742418319334121</v>
+        <v>1.49056180146593</v>
       </c>
       <c r="N12">
-        <v>0.9033162343867716</v>
+        <v>0.4636588025721906</v>
       </c>
       <c r="O12">
-        <v>1.705665419615201</v>
+        <v>2.127948672000741</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.039567294146252</v>
+        <v>3.325458811792544</v>
       </c>
       <c r="C13">
-        <v>0.2389906721785735</v>
+        <v>0.6966281221345696</v>
       </c>
       <c r="D13">
-        <v>0.1182999238480278</v>
+        <v>0.3488298017724816</v>
       </c>
       <c r="E13">
-        <v>0.1676836017123762</v>
+        <v>0.3989141982326387</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.3932039241714875</v>
+        <v>0.6622561460383878</v>
       </c>
       <c r="H13">
-        <v>0.4876668842780418</v>
+        <v>0.3631174415206715</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.4719471939202435</v>
+        <v>1.482152832570577</v>
       </c>
       <c r="N13">
-        <v>0.9038017571975772</v>
+        <v>0.4647076741668528</v>
       </c>
       <c r="O13">
-        <v>1.704023264546635</v>
+        <v>2.117487929504847</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.022137536520233</v>
+        <v>3.26682630520969</v>
       </c>
       <c r="C14">
-        <v>0.2355123198642843</v>
+        <v>0.6855061066367796</v>
       </c>
       <c r="D14">
-        <v>0.1165814139972667</v>
+        <v>0.3423703407849388</v>
       </c>
       <c r="E14">
-        <v>0.1660407335443139</v>
+        <v>0.3912194916531462</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.3910241037244191</v>
+        <v>0.6505533214995154</v>
       </c>
       <c r="H14">
-        <v>0.4873572674574831</v>
+        <v>0.3587873640613566</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.4644655140853615</v>
+        <v>1.454771058448415</v>
       </c>
       <c r="N14">
-        <v>0.9053961471980188</v>
+        <v>0.4681639735091707</v>
       </c>
       <c r="O14">
-        <v>1.698701767623561</v>
+        <v>2.08353930924028</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.011459366855945</v>
+        <v>3.230941925830962</v>
       </c>
       <c r="C15">
-        <v>0.2333804458842508</v>
+        <v>0.6786969879692037</v>
       </c>
       <c r="D15">
-        <v>0.1155294833310307</v>
+        <v>0.3384218382785349</v>
       </c>
       <c r="E15">
-        <v>0.1650369362502317</v>
+        <v>0.3865286341366883</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.3896955376697093</v>
+        <v>0.643423954246046</v>
       </c>
       <c r="H15">
-        <v>0.4871734441683913</v>
+        <v>0.3561558254607036</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.4598840248069536</v>
+        <v>1.438030323282874</v>
       </c>
       <c r="N15">
-        <v>0.9063812044474204</v>
+        <v>0.4703082420055864</v>
       </c>
       <c r="O15">
-        <v>1.695468252073994</v>
+        <v>2.062870632473704</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.9502381419860626</v>
+        <v>3.025728230250706</v>
       </c>
       <c r="C16">
-        <v>0.2211440500902597</v>
+        <v>0.639724485059844</v>
       </c>
       <c r="D16">
-        <v>0.1095121193718569</v>
+        <v>0.3159128523858641</v>
       </c>
       <c r="E16">
-        <v>0.1593227970805842</v>
+        <v>0.3599739997874138</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.3821835391734254</v>
+        <v>0.6031414082946895</v>
       </c>
       <c r="H16">
-        <v>0.4862092690884054</v>
+        <v>0.3413828081295378</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.4336486273001725</v>
+        <v>1.342550827344837</v>
       </c>
       <c r="N16">
-        <v>0.9121555992712871</v>
+        <v>0.4830028237150259</v>
       </c>
       <c r="O16">
-        <v>1.677336986424962</v>
+        <v>1.946281675689306</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.9126559195390769</v>
+        <v>2.900183597868477</v>
       </c>
       <c r="C17">
-        <v>0.2136202168173611</v>
+        <v>0.6158536466149087</v>
       </c>
       <c r="D17">
-        <v>0.1058303217897816</v>
+        <v>0.3022036017244716</v>
       </c>
       <c r="E17">
-        <v>0.1558512354229151</v>
+        <v>0.343958209283528</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.3776654493326106</v>
+        <v>0.5789152682740024</v>
       </c>
       <c r="H17">
-        <v>0.4856973522291241</v>
+        <v>0.3325826993106773</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.4175712730834817</v>
+        <v>1.284355495900414</v>
       </c>
       <c r="N17">
-        <v>0.9158134488413978</v>
+        <v>0.491142785853846</v>
       </c>
       <c r="O17">
-        <v>1.666569109622003</v>
+        <v>1.876335321265202</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.891030774987712</v>
+        <v>2.82808896830204</v>
       </c>
       <c r="C18">
-        <v>0.2092864605636748</v>
+        <v>0.6021356012255694</v>
       </c>
       <c r="D18">
-        <v>0.1037161994924247</v>
+        <v>0.2943524756699389</v>
       </c>
       <c r="E18">
-        <v>0.1538668460423622</v>
+        <v>0.3348407709692864</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.3750998326613626</v>
+        <v>0.5651498345665971</v>
       </c>
       <c r="H18">
-        <v>0.4854321307995235</v>
+        <v>0.3276132037317012</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.4083303382897867</v>
+        <v>1.25101147542432</v>
       </c>
       <c r="N18">
-        <v>0.9179597547064446</v>
+        <v>0.4959500381917934</v>
       </c>
       <c r="O18">
-        <v>1.660505918313532</v>
+        <v>1.836653655112599</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.8837073856364555</v>
+        <v>2.80369763945464</v>
       </c>
       <c r="C19">
-        <v>0.2078180594544676</v>
+        <v>0.5974927585936598</v>
       </c>
       <c r="D19">
-        <v>0.1030010037821683</v>
+        <v>0.2916998485664664</v>
       </c>
       <c r="E19">
-        <v>0.1531970804992682</v>
+        <v>0.3317693835477797</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.3742368283621715</v>
+        <v>0.5605171874754973</v>
       </c>
       <c r="H19">
-        <v>0.4853473476682524</v>
+        <v>0.3259460269372454</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.4052026052634972</v>
+        <v>1.239742840486102</v>
       </c>
       <c r="N19">
-        <v>0.9186937388542518</v>
+        <v>0.4975988450050792</v>
       </c>
       <c r="O19">
-        <v>1.65847536251141</v>
+        <v>1.823309761267637</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.9166575342306942</v>
+        <v>2.913535831400679</v>
       </c>
       <c r="C20">
-        <v>0.2144217898774059</v>
+        <v>0.6183934706566845</v>
       </c>
       <c r="D20">
-        <v>0.1062218879888661</v>
+        <v>0.3036593951832174</v>
       </c>
       <c r="E20">
-        <v>0.1562195077628772</v>
+        <v>0.3456532023368624</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.3781429827489262</v>
+        <v>0.5814764964767249</v>
       </c>
       <c r="H20">
-        <v>0.4857488220060446</v>
+        <v>0.3335098567186208</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.4192820795261412</v>
+        <v>1.290536966283625</v>
       </c>
       <c r="N20">
-        <v>0.9154196750838395</v>
+        <v>0.4902632082470006</v>
       </c>
       <c r="O20">
-        <v>1.667701886283339</v>
+        <v>1.883723684103416</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.027257484969311</v>
+        <v>3.284041825061479</v>
       </c>
       <c r="C21">
-        <v>0.2365342639947414</v>
+        <v>0.6887721840135441</v>
       </c>
       <c r="D21">
-        <v>0.1170860348198346</v>
+        <v>0.3442659377935513</v>
       </c>
       <c r="E21">
-        <v>0.1665227608193121</v>
+        <v>0.3934749116803502</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.3916629861065104</v>
+        <v>0.6539825488953426</v>
       </c>
       <c r="H21">
-        <v>0.487446995169222</v>
+        <v>0.360054860056394</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.4666628031821602</v>
+        <v>1.462807143039726</v>
       </c>
       <c r="N21">
-        <v>0.9049260756796471</v>
+        <v>0.4671430847907487</v>
       </c>
       <c r="O21">
-        <v>1.700259388883097</v>
+        <v>2.093484438510842</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.099455030400122</v>
+        <v>3.52748556604331</v>
       </c>
       <c r="C22">
-        <v>0.2509288323749388</v>
+        <v>0.7349171915921602</v>
       </c>
       <c r="D22">
-        <v>0.1242179929171243</v>
+        <v>0.3711607745346015</v>
       </c>
       <c r="E22">
-        <v>0.1733684958091928</v>
+        <v>0.425712689701669</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.4007958526366622</v>
+        <v>0.7030860872712594</v>
       </c>
       <c r="H22">
-        <v>0.4888175426294623</v>
+        <v>0.3783205527307132</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.4976850680415481</v>
+        <v>1.576771645095889</v>
       </c>
       <c r="N22">
-        <v>0.8984459346727576</v>
+        <v>0.4532383266258293</v>
       </c>
       <c r="O22">
-        <v>1.722703006344346</v>
+        <v>2.236125226380125</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.06093004899185</v>
+        <v>3.397422677775978</v>
       </c>
       <c r="C23">
-        <v>0.2432514919385085</v>
+        <v>0.7102729424667586</v>
       </c>
       <c r="D23">
-        <v>0.120408640677141</v>
+        <v>0.3567712378122962</v>
       </c>
       <c r="E23">
-        <v>0.1697044618955914</v>
+        <v>0.4084094855738201</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.3958942055906363</v>
+        <v>0.676710684065057</v>
       </c>
       <c r="H23">
-        <v>0.4880621781655066</v>
+        <v>0.3684829783297516</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.4811227657007748</v>
+        <v>1.515808865437208</v>
       </c>
       <c r="N23">
-        <v>0.9018698976576189</v>
+        <v>0.4605447240725056</v>
       </c>
       <c r="O23">
-        <v>1.710617503587002</v>
+        <v>2.159454010489156</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.9148484621630928</v>
+        <v>2.9074990320795</v>
       </c>
       <c r="C24">
-        <v>0.2140594242367229</v>
+        <v>0.6172451991720038</v>
       </c>
       <c r="D24">
-        <v>0.1060448528379396</v>
+        <v>0.3030011365136858</v>
       </c>
       <c r="E24">
-        <v>0.1560529761715017</v>
+        <v>0.3448866163907667</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.3779269905709413</v>
+        <v>0.5803180613651904</v>
       </c>
       <c r="H24">
-        <v>0.485725461921021</v>
+        <v>0.3330904101785848</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.4185086172382455</v>
+        <v>1.287741973271508</v>
       </c>
       <c r="N24">
-        <v>0.9155975651378299</v>
+        <v>0.4906604691758361</v>
       </c>
       <c r="O24">
-        <v>1.667189361158819</v>
+        <v>1.88038175705978</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.7569413824425624</v>
+        <v>2.383313830385362</v>
       </c>
       <c r="C25">
-        <v>0.182333080663625</v>
+        <v>0.5173312645805197</v>
       </c>
       <c r="D25">
-        <v>0.09068685325721049</v>
+        <v>0.2462777890552132</v>
       </c>
       <c r="E25">
-        <v>0.1417990477271829</v>
+        <v>0.2799087667099229</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.359809274189189</v>
+        <v>0.4826917652163303</v>
       </c>
       <c r="H25">
-        <v>0.4843217362299583</v>
+        <v>0.2983872009686053</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.3512111423917119</v>
+        <v>1.046531349915234</v>
       </c>
       <c r="N25">
-        <v>0.9320262352454165</v>
+        <v>0.5278939864294259</v>
       </c>
       <c r="O25">
-        <v>1.625319328475058</v>
+        <v>1.600048568237611</v>
       </c>
     </row>
   </sheetData>
